--- a/data/filtered.xlsx
+++ b/data/filtered.xlsx
@@ -2894,7 +2894,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>2</v>
